--- a/HS2017de olup HS2012de olmayan ürünlerin CEE-MENA bölgesinde ticaret hacminde oranları yıl yıl.xlsx
+++ b/HS2017de olup HS2012de olmayan ürünlerin CEE-MENA bölgesinde ticaret hacminde oranları yıl yıl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oguzo\Desktop\MENA\CEE-MENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1CB3EF-6E2C-4CEF-B1BB-F9E15CE8605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0954EC5C-48E5-4012-9E67-98A8E14BBF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="3048" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,1623 +517,932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C1" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D1" s="1">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E1" s="1">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="F1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.96399396636125401</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.82662677474676427</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.070076022890208</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.3538479319510499</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.96399396636125401</v>
-      </c>
-      <c r="H2">
-        <v>0.82662677474676427</v>
-      </c>
-      <c r="I2">
-        <v>1.070076022890208</v>
-      </c>
-      <c r="J2">
-        <v>1.3538479319510499</v>
-      </c>
-      <c r="K2">
         <v>1.418281655338159</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.6556774840437289</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3.5673265195750301</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.4649852374897052</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4.0283650715227441</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>3.6556774840437289</v>
-      </c>
-      <c r="H3">
-        <v>3.5673265195750301</v>
-      </c>
-      <c r="I3">
-        <v>3.4649852374897052</v>
-      </c>
-      <c r="J3">
-        <v>4.0283650715227441</v>
-      </c>
-      <c r="K3">
         <v>4.1139010101484486</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.6294335951636529</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.7988015402348509</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.093126046383289</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.5781054957144258</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1.6294335951636529</v>
-      </c>
-      <c r="H4">
-        <v>1.7988015402348509</v>
-      </c>
-      <c r="I4">
-        <v>2.093126046383289</v>
-      </c>
-      <c r="J4">
-        <v>2.5781054957144258</v>
-      </c>
-      <c r="K4">
         <v>2.8942997569723521</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.6492471546133451</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.6637274348421087</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4.9186721632894326</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5.8680663702180604</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>5.6492471546133451</v>
-      </c>
-      <c r="H5">
-        <v>4.6637274348421087</v>
-      </c>
-      <c r="I5">
-        <v>4.9186721632894326</v>
-      </c>
-      <c r="J5">
-        <v>5.8680663702180604</v>
-      </c>
-      <c r="K5">
         <v>4.799447865585047</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.0822815709049429</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.2222996314051722</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.6564116385803178</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.1972453102057852</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2.0822815709049429</v>
-      </c>
-      <c r="H6">
-        <v>2.2222996314051722</v>
-      </c>
-      <c r="I6">
-        <v>2.6564116385803178</v>
-      </c>
-      <c r="J6">
-        <v>4.1972453102057852</v>
-      </c>
-      <c r="K6">
         <v>5.9064875818018674</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8.0058459763017709</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>8.6214588930958218</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>8.8230055902142492</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8.4836602832806403</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>8.0058459763017709</v>
-      </c>
-      <c r="H7">
-        <v>8.6214588930958218</v>
-      </c>
-      <c r="I7">
-        <v>8.8230055902142492</v>
-      </c>
-      <c r="J7">
-        <v>8.4836602832806403</v>
-      </c>
-      <c r="K7">
         <v>9.1146834256701652</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.8898842645427061</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.1176721325232761</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.2949076938692201</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3.9258855546453182</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1.8898842645427061</v>
-      </c>
-      <c r="H8">
-        <v>2.1176721325232761</v>
-      </c>
-      <c r="I8">
-        <v>2.2949076938692201</v>
-      </c>
-      <c r="J8">
-        <v>3.9258855546453182</v>
-      </c>
-      <c r="K8">
         <v>4.3319107536584331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>11.175359119227069</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>11.89534341345674</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>11.66945508409696</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>11.176066804641771</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>11.175359119227069</v>
-      </c>
-      <c r="H9">
-        <v>11.89534341345674</v>
-      </c>
-      <c r="I9">
-        <v>11.66945508409696</v>
-      </c>
-      <c r="J9">
-        <v>11.176066804641771</v>
-      </c>
-      <c r="K9">
         <v>13.053558136302341</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.541334868661357</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6.0672816104472904</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5.8791182883599946</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5.6547771013633694</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>5.541334868661357</v>
-      </c>
-      <c r="H10">
-        <v>6.0672816104472904</v>
-      </c>
-      <c r="I10">
-        <v>5.8791182883599946</v>
-      </c>
-      <c r="J10">
-        <v>5.6547771013633694</v>
-      </c>
-      <c r="K10">
         <v>6.3468893999492142</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.619346043685383</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.1858486902522278</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.5360565717785191</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.823181795213096</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1.619346043685383</v>
-      </c>
-      <c r="H11">
-        <v>2.1858486902522278</v>
-      </c>
-      <c r="I11">
-        <v>1.5360565717785191</v>
-      </c>
-      <c r="J11">
-        <v>1.823181795213096</v>
-      </c>
-      <c r="K11">
         <v>2.1954263418846511</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.53238959836273636</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.3682667217545541</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.41398672030513711</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.57456280214555966</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.53238959836273636</v>
-      </c>
-      <c r="H12">
-        <v>0.3682667217545541</v>
-      </c>
-      <c r="I12">
-        <v>0.41398672030513711</v>
-      </c>
-      <c r="J12">
-        <v>0.57456280214555966</v>
-      </c>
-      <c r="K12">
         <v>0.59447263779014237</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.672553917115428</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.953107071708386</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.640368506044531</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.052188338450891</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1.672553917115428</v>
-      </c>
-      <c r="H13">
-        <v>1.953107071708386</v>
-      </c>
-      <c r="I13">
-        <v>1.640368506044531</v>
-      </c>
-      <c r="J13">
-        <v>2.052188338450891</v>
-      </c>
-      <c r="K13">
         <v>2.3108801555068719</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.350449333479707</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.3047547628132781</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1.559653023813504</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.7918387538299601</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1.350449333479707</v>
-      </c>
-      <c r="H14">
-        <v>1.3047547628132781</v>
-      </c>
-      <c r="I14">
-        <v>1.559653023813504</v>
-      </c>
-      <c r="J14">
-        <v>3.7918387538299601</v>
-      </c>
-      <c r="K14">
         <v>3.518771008510126</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.479480574147005</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.527893106654179</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.5135532739500079</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1.5517435172669121</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1.479480574147005</v>
-      </c>
-      <c r="H15">
-        <v>1.527893106654179</v>
-      </c>
-      <c r="I15">
-        <v>1.5135532739500079</v>
-      </c>
-      <c r="J15">
-        <v>1.5517435172669121</v>
-      </c>
-      <c r="K15">
         <v>1.4266554332686561</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.474502450823449</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.81754496060171</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4.8751858422411853</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>9.6529950612803734</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1.474502450823449</v>
-      </c>
-      <c r="H16">
-        <v>1.81754496060171</v>
-      </c>
-      <c r="I16">
-        <v>4.8751858422411853</v>
-      </c>
-      <c r="J16">
-        <v>9.6529950612803734</v>
-      </c>
-      <c r="K16">
         <v>11.33047036718987</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.297336778201192</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3.673729348365431</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4.1488608277664056</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5.5522788460976402</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>3.297336778201192</v>
-      </c>
-      <c r="H17">
-        <v>3.673729348365431</v>
-      </c>
-      <c r="I17">
-        <v>4.1488608277664056</v>
-      </c>
-      <c r="J17">
-        <v>5.5522788460976402</v>
-      </c>
-      <c r="K17">
         <v>7.5100356823578363</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.912840490044208</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>4.6431302334037516</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4.9717723797389857</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5.9685400779403981</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>4.912840490044208</v>
-      </c>
-      <c r="H18">
-        <v>4.6431302334037516</v>
-      </c>
-      <c r="I18">
-        <v>4.9717723797389857</v>
-      </c>
-      <c r="J18">
-        <v>5.9685400779403981</v>
-      </c>
-      <c r="K18">
         <v>6.034638642541835</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.54908393982747017</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.54820504161372507</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.49993962010042992</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.85080145504916516</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0.54908393982747017</v>
-      </c>
-      <c r="H19">
-        <v>0.54820504161372507</v>
-      </c>
-      <c r="I19">
-        <v>0.49993962010042992</v>
-      </c>
-      <c r="J19">
-        <v>0.85080145504916516</v>
-      </c>
-      <c r="K19">
         <v>0.88938419439862226</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.2794752090213488</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.1077895875202639</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2.100164897445278</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.624835096780465</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>2.2794752090213488</v>
-      </c>
-      <c r="H20">
-        <v>2.1077895875202639</v>
-      </c>
-      <c r="I20">
-        <v>2.100164897445278</v>
-      </c>
-      <c r="J20">
-        <v>2.624835096780465</v>
-      </c>
-      <c r="K20">
         <v>2.5474468789770288</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.9779989335095649</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.1124300797029751</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1.5774444014077991</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1.7782198827565141</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1.9779989335095649</v>
-      </c>
-      <c r="H21">
-        <v>2.1124300797029751</v>
-      </c>
-      <c r="I21">
-        <v>1.5774444014077991</v>
-      </c>
-      <c r="J21">
-        <v>1.7782198827565141</v>
-      </c>
-      <c r="K21">
         <v>2.2074380302061591</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.99697032126114471</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.88798289276446085</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1.229895149823212</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.089377144247424</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0.99697032126114471</v>
-      </c>
-      <c r="H22">
-        <v>0.88798289276446085</v>
-      </c>
-      <c r="I22">
-        <v>1.229895149823212</v>
-      </c>
-      <c r="J22">
-        <v>2.089377144247424</v>
-      </c>
-      <c r="K22">
         <v>2.2295338750030029</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2.355068650932767</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.4328259364695222</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2.5734094282226261</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.0028345705244202</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>2.355068650932767</v>
-      </c>
-      <c r="H23">
-        <v>2.4328259364695222</v>
-      </c>
-      <c r="I23">
-        <v>2.5734094282226261</v>
-      </c>
-      <c r="J23">
-        <v>3.0028345705244202</v>
-      </c>
-      <c r="K23">
         <v>2.7104978911881248</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.1310952375770671</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.0077620496094719</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1.0053833964675549</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1.4722398441080069</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1.1310952375770671</v>
-      </c>
-      <c r="H24">
-        <v>1.0077620496094719</v>
-      </c>
-      <c r="I24">
-        <v>1.0053833964675549</v>
-      </c>
-      <c r="J24">
-        <v>1.4722398441080069</v>
-      </c>
-      <c r="K24">
         <v>1.650954071502166</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.2615645565208691E-2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5.4045389287708363E-2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4.9548492656198692E-2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>7.6928463391999463E-2</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>3.2615645565208691E-2</v>
-      </c>
-      <c r="H25">
-        <v>5.4045389287708363E-2</v>
-      </c>
-      <c r="I25">
-        <v>4.9548492656198692E-2</v>
-      </c>
-      <c r="J25">
-        <v>7.6928463391999463E-2</v>
-      </c>
-      <c r="K25">
         <v>8.258390486296166E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.34549444536185342</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.1988943576010466</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.1728382623325328</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.19186624162248059</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0.34549444536185342</v>
-      </c>
-      <c r="H26">
-        <v>0.1988943576010466</v>
-      </c>
-      <c r="I26">
-        <v>0.1728382623325328</v>
-      </c>
-      <c r="J26">
-        <v>0.19186624162248059</v>
-      </c>
-      <c r="K26">
         <v>0.21329727481052679</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.42830290657204828</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.40929414599423902</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1.045263792672398</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2.6788283814635858E-2</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0.42830290657204828</v>
-      </c>
-      <c r="H27">
-        <v>0.40929414599423902</v>
-      </c>
-      <c r="I27">
-        <v>1.045263792672398</v>
-      </c>
-      <c r="J27">
-        <v>2.6788283814635858E-2</v>
-      </c>
-      <c r="K27">
         <v>9.9137693691246323E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1.0756867081477841</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.30405082862289</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2.0039157522934739</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1.8492402946061699</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1.0756867081477841</v>
-      </c>
-      <c r="H28">
-        <v>1.30405082862289</v>
-      </c>
-      <c r="I28">
-        <v>2.0039157522934739</v>
-      </c>
-      <c r="J28">
-        <v>1.8492402946061699</v>
-      </c>
-      <c r="K28">
         <v>2.4175820481270738</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.95311468775591879</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.90211838112866771</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1.7049842769973389</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1.8922539506876179</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0.95311468775591879</v>
-      </c>
-      <c r="H29">
-        <v>0.90211838112866771</v>
-      </c>
-      <c r="I29">
-        <v>1.7049842769973389</v>
-      </c>
-      <c r="J29">
-        <v>1.8922539506876179</v>
-      </c>
-      <c r="K29">
         <v>1.4744858168044661</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1.039796725537901E-3</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4.0435296681227902E-4</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.5447317936748139E-3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2.4901841215268792E-3</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1.039796725537901E-3</v>
-      </c>
-      <c r="H30">
-        <v>4.0435296681227902E-4</v>
-      </c>
-      <c r="I30">
-        <v>1.5447317936748139E-3</v>
-      </c>
-      <c r="J30">
-        <v>2.4901841215268792E-3</v>
-      </c>
-      <c r="K30">
         <v>3.9505619061888887E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.22907199151845639</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.2362528862521065</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.31079995262135168</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.49562024686870249</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0.22907199151845639</v>
-      </c>
-      <c r="H31">
-        <v>0.2362528862521065</v>
-      </c>
-      <c r="I31">
-        <v>0.31079995262135168</v>
-      </c>
-      <c r="J31">
-        <v>0.49562024686870249</v>
-      </c>
-      <c r="K31">
         <v>0.38798216608078451</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.29293724260335541</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1.353787549602848</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1.507879592837553</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2.0306055680081672</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0.29293724260335541</v>
-      </c>
-      <c r="H32">
-        <v>1.353787549602848</v>
-      </c>
-      <c r="I32">
-        <v>1.507879592837553</v>
-      </c>
-      <c r="J32">
-        <v>2.0306055680081672</v>
-      </c>
-      <c r="K32">
         <v>1.9139454563012619</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2.4277428420711611</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2.7544730822843189</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2.1465480567645399</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1.584483800783044</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>2.4277428420711611</v>
-      </c>
-      <c r="H33">
-        <v>2.7544730822843189</v>
-      </c>
-      <c r="I33">
-        <v>2.1465480567645399</v>
-      </c>
-      <c r="J33">
-        <v>1.584483800783044</v>
-      </c>
-      <c r="K33">
         <v>3.2621419070036022</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>7.542001016705633E-3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4.631069816164313E-3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2.8430481781382519E-3</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.8405710886217879E-3</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>7.542001016705633E-3</v>
-      </c>
-      <c r="H34">
-        <v>4.631069816164313E-3</v>
-      </c>
-      <c r="I34">
-        <v>2.8430481781382519E-3</v>
-      </c>
-      <c r="J34">
-        <v>3.8405710886217879E-3</v>
-      </c>
-      <c r="K34">
         <v>3.7810470375567759E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5.4874084271607702</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>4.7869660362690531</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>4.6743693338142567</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4.9799533724094367</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>5.4874084271607702</v>
-      </c>
-      <c r="H35">
-        <v>4.7869660362690531</v>
-      </c>
-      <c r="I35">
-        <v>4.6743693338142567</v>
-      </c>
-      <c r="J35">
-        <v>4.9799533724094367</v>
-      </c>
-      <c r="K35">
         <v>5.5965067561364368</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.83452234433535766</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.90795278936356627</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.81125794940009377</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1.5107454855586391</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0.83452234433535766</v>
-      </c>
-      <c r="H36">
-        <v>0.90795278936356627</v>
-      </c>
-      <c r="I36">
-        <v>0.81125794940009377</v>
-      </c>
-      <c r="J36">
-        <v>1.5107454855586391</v>
-      </c>
-      <c r="K36">
         <v>1.126981179896845</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1.2846023151513311</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.82763922544962565</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.60505639402746547</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.45189526500317029</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1.2846023151513311</v>
-      </c>
-      <c r="H37">
-        <v>0.82763922544962565</v>
-      </c>
-      <c r="I37">
-        <v>0.60505639402746547</v>
-      </c>
-      <c r="J37">
-        <v>0.45189526500317029</v>
-      </c>
-      <c r="K37">
         <v>0.46880398060014561</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.28541636585417768</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.26205671831350091</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.2989284242616545</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.29862580506320591</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0.28541636585417768</v>
-      </c>
-      <c r="H38">
-        <v>0.26205671831350091</v>
-      </c>
-      <c r="I38">
-        <v>0.2989284242616545</v>
-      </c>
-      <c r="J38">
-        <v>0.29862580506320591</v>
-      </c>
-      <c r="K38">
         <v>0.1792982951718691</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.95011352931306303</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1.263118998600655</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1.249894746810259</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1.543079483905508</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0.95011352931306303</v>
-      </c>
-      <c r="H39">
-        <v>1.263118998600655</v>
-      </c>
-      <c r="I39">
-        <v>1.249894746810259</v>
-      </c>
-      <c r="J39">
-        <v>1.543079483905508</v>
-      </c>
-      <c r="K39">
         <v>1.0986937670278301</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>7.9978921851828044</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5.2347158601713666</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>3.1799248559182609</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2.0511805760025839</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>7.9978921851828044</v>
-      </c>
-      <c r="H40">
-        <v>5.2347158601713666</v>
-      </c>
-      <c r="I40">
-        <v>3.1799248559182609</v>
-      </c>
-      <c r="J40">
-        <v>2.0511805760025839</v>
-      </c>
-      <c r="K40">
         <v>1.494334178163139</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.5919747704524448E-3</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>5.6345853935026037E-2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>6.2942005885103403E-2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1.9087952747302558E-2</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>3.5919747704524448E-3</v>
-      </c>
-      <c r="H41">
-        <v>5.6345853935026037E-2</v>
-      </c>
-      <c r="I41">
-        <v>6.2942005885103403E-2</v>
-      </c>
-      <c r="J41">
-        <v>1.9087952747302558E-2</v>
-      </c>
-      <c r="K41">
         <v>4.4227027551617663E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>8.2224549371285954E-2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.20722806704602281</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.40924028392004719</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.38163366854267289</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>8.2224549371285954E-2</v>
-      </c>
-      <c r="H42">
-        <v>0.20722806704602281</v>
-      </c>
-      <c r="I42">
-        <v>0.40924028392004719</v>
-      </c>
-      <c r="J42">
-        <v>0.38163366854267289</v>
-      </c>
-      <c r="K42">
         <v>0.50574346254208713</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.65430991091236546</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1.1976803687899289</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1.3798615284261531</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.87129790810336272</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0.65430991091236546</v>
-      </c>
-      <c r="H43">
-        <v>1.1976803687899289</v>
-      </c>
-      <c r="I43">
-        <v>1.3798615284261531</v>
-      </c>
-      <c r="J43">
-        <v>0.87129790810336272</v>
-      </c>
-      <c r="K43">
         <v>1.2755382475664161</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3.0454619846280808</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3.9326055661842272</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3.832884289059205</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4.5442239595930198</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>3.0454619846280808</v>
-      </c>
-      <c r="H44">
-        <v>3.9326055661842272</v>
-      </c>
-      <c r="I44">
-        <v>3.832884289059205</v>
-      </c>
-      <c r="J44">
-        <v>4.5442239595930198</v>
-      </c>
-      <c r="K44">
         <v>4.0309412194005194</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.70328994609577189</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.79642537443611916</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.78785168194157562</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1.0253147513045251</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0.70328994609577189</v>
-      </c>
-      <c r="H45">
-        <v>0.79642537443611916</v>
-      </c>
-      <c r="I45">
-        <v>0.78785168194157562</v>
-      </c>
-      <c r="J45">
-        <v>1.0253147513045251</v>
-      </c>
-      <c r="K45">
         <v>0.88151089431795748</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.7489446275145093</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2.1991510979116451</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2.2094257139254339</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3.257379379453246</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0.7489446275145093</v>
-      </c>
-      <c r="H46">
-        <v>2.1991510979116451</v>
-      </c>
-      <c r="I46">
-        <v>2.2094257139254339</v>
-      </c>
-      <c r="J46">
-        <v>3.257379379453246</v>
-      </c>
-      <c r="K46">
         <v>3.1230387827043931</v>
       </c>
     </row>
